--- a/data/out/cities.xlsx
+++ b/data/out/cities.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,42 +424,102 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>name	age	city</t>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>city</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alice	22	SPB</t>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SPB</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bob	25	Moscow</t>
+          <t>Bob</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Moscow</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Carlos	30	Kazan</t>
+          <t>Carlos</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Kazan</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dana	21	SPB</t>
+          <t>Dana</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SPB</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Andrey	27	Novosibirsk</t>
+          <t>Andrey</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Novosibirsk</t>
         </is>
       </c>
     </row>
